--- a/ExcelConverter/ExcelFiles/RecipeProbabilityTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeProbabilityTable.xlsx
@@ -1419,7 +1419,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="11.14"/>
+    <col customWidth="1" min="2" max="2" width="14.14"/>
     <col customWidth="1" min="3" max="3" width="8.71"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
     <col customWidth="1" min="5" max="26" width="8.71"/>
@@ -1516,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" s="3">
         <v>50.0</v>
@@ -1533,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="3">
         <v>30.0</v>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9" s="3">
         <v>40.0</v>
@@ -1587,7 +1587,7 @@
         <v>16.0</v>
       </c>
       <c r="D10" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" s="3">
         <v>5.0</v>
@@ -1601,10 +1601,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="5">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E11" s="3">
         <v>5.0</v>
@@ -1618,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" s="3">
         <v>5.0</v>
@@ -1635,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E13" s="3">
         <v>5.0</v>
@@ -1652,10 +1652,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>84.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" s="3">
         <v>5.0</v>

--- a/ExcelConverter/ExcelFiles/RecipeProbabilityTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeProbabilityTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>테이블 용도: 레시피 등장하는 확률 및 점수를 관리하는 데이터 테이블</t>
   </si>
@@ -72,6 +72,18 @@
   <si>
     <t>1-5스테이지</t>
   </si>
+  <si>
+    <t>2-1스테이지</t>
+  </si>
+  <si>
+    <t>2-2스테이지</t>
+  </si>
+  <si>
+    <t>2-3스테이지</t>
+  </si>
+  <si>
+    <t>2-4스테이지</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -123,9 +135,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,7 +356,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
+    <col customWidth="1" min="1" max="1" width="64.57"/>
     <col customWidth="1" min="2" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -1422,7 +1431,9 @@
     <col customWidth="1" min="2" max="2" width="14.14"/>
     <col customWidth="1" min="3" max="3" width="8.71"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="15.14"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -1662,15 +1673,141 @@
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="C15" s="6"/>
+      <c r="A15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>178.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.0</v>
+      </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>179.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="A19" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c r="A20" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>183.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="A22" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>182.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
     <row r="23" ht="16.5" customHeight="1"/>
     <row r="24" ht="16.5" customHeight="1"/>
     <row r="25" ht="16.5" customHeight="1"/>
